--- a/drools/src/main/resources/decision.xlsx
+++ b/drools/src/main/resources/decision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>RuleSet</t>
   </si>
@@ -58,10 +58,10 @@
     <t>User</t>
   </si>
   <si>
-    <t>name != "$1"</t>
-  </si>
-  <si>
-    <t>age &gt; $1 || age &lt; $2</t>
+    <t>name == "$1"</t>
+  </si>
+  <si>
+    <t>age &gt; $1 &amp;&amp; age &lt; $2</t>
   </si>
   <si>
     <t>out("$1");</t>
@@ -82,7 +82,7 @@
     <t>年龄规则</t>
   </si>
   <si>
-    <t>18,20</t>
+    <t>18,22</t>
   </si>
   <si>
     <t>年龄不合适</t>
@@ -93,8 +93,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -143,14 +143,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -165,9 +157,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,17 +212,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,44 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,31 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,151 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,50 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +533,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,15 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,157 +615,169 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1080,158 +1098,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="64.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="b">
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" spans="2:5">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/drools/src/main/resources/decision.xlsx
+++ b/drools/src/main/resources/decision.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28125" windowHeight="12690" tabRatio="175"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="text" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>RuleSet</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Sequential</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>com.example.entity.User</t>
+  </si>
+  <si>
     <t>Functions</t>
   </si>
   <si>
-    <t>function void out(String str) { System.out.println(str); }</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>决策表实例</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>com.example.entity.User</t>
+    <t>function void out(Object obj) { System.out.println(obj); }</t>
+  </si>
+  <si>
+    <t>规则名称前缀</t>
   </si>
   <si>
     <t>RuleTable test-decision-rule</t>
   </si>
   <si>
+    <t>决策表属性</t>
+  </si>
+  <si>
     <t>CONDITION</t>
   </si>
   <si>
@@ -55,7 +55,10 @@
     <t>ACTION</t>
   </si>
   <si>
-    <t>User</t>
+    <t>$user:User</t>
+  </si>
+  <si>
+    <t>规则表达式</t>
   </si>
   <si>
     <t>name == "$1"</t>
@@ -67,9 +70,18 @@
     <t>out("$1");</t>
   </si>
   <si>
+    <t>out($user);</t>
+  </si>
+  <si>
     <t>名称规则</t>
   </si>
   <si>
+    <t>年龄规则</t>
+  </si>
+  <si>
+    <t>名称为'lilei'</t>
+  </si>
+  <si>
     <t>lilei</t>
   </si>
   <si>
@@ -79,13 +91,22 @@
     <t>名称不对</t>
   </si>
   <si>
-    <t>年龄规则</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>年龄&gt;18且&lt;22</t>
   </si>
   <si>
     <t>18,22</t>
   </si>
   <si>
     <t>年龄不合适</t>
+  </si>
+  <si>
+    <t>默认规则</t>
+  </si>
+  <si>
+    <t>执行默认规则</t>
   </si>
 </sst>
 </file>
@@ -93,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +136,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,6 +151,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,15 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,9 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -218,24 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,16 +278,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,31 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,6 +300,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,7 +366,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,43 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,114 +468,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -499,10 +489,58 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,50 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,6 +571,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +598,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,180 +617,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,166 +1091,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:5">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>16</v>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
